--- a/templates/cpr1000/wd_check_list.xlsx
+++ b/templates/cpr1000/wd_check_list.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\doc-server\templates\cpr1000\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18195" windowHeight="12045"/>
   </bookViews>
@@ -570,10 +575,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${project}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${t}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -595,13 +596,17 @@
   </si>
   <si>
     <t>${date}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${unit}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="31">
     <font>
       <sz val="12"/>
@@ -1472,41 +1477,93 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1520,59 +1577,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,6 +1673,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1714,7 +1727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,9 +1759,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1780,6 +1794,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1955,11 +1970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1978,83 +1993,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="44"/>
+      <c r="B3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="21"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="47"/>
+      <c r="E3" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="25"/>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="48"/>
+      <c r="E4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="26"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2064,16 +2079,16 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2082,940 +2097,940 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="17" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="17" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="17" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="17" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="17" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="17" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="17" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="17" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="17" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="17" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="17" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="17" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
     </row>
     <row r="39" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="17" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="17" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
     </row>
     <row r="44" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="25" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="44"/>
+      <c r="F44" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="17" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18" t="s">
+      <c r="E45" s="28"/>
+      <c r="F45" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="17" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18" t="s">
+      <c r="E46" s="28"/>
+      <c r="F46" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="17" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18" t="s">
+      <c r="E47" s="28"/>
+      <c r="F47" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24" t="s">
+      <c r="A48" s="34"/>
+      <c r="B48" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18" t="s">
+      <c r="E48" s="28"/>
+      <c r="F48" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
     </row>
     <row r="49" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="17" t="s">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18" t="s">
+      <c r="E49" s="28"/>
+      <c r="F49" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="17" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18" t="s">
+      <c r="E50" s="28"/>
+      <c r="F50" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18" t="s">
+      <c r="E51" s="28"/>
+      <c r="F51" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="17" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18" t="s">
+      <c r="E52" s="28"/>
+      <c r="F52" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="53" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="17" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18" t="s">
+      <c r="E53" s="28"/>
+      <c r="F53" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="19" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18" t="s">
+      <c r="E54" s="28"/>
+      <c r="F54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="17" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
     </row>
     <row r="56" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="17" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="18" t="s">
+      <c r="E56" s="28"/>
+      <c r="F56" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
     </row>
     <row r="57" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="17" t="s">
+      <c r="A57" s="34"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18" t="s">
+      <c r="E57" s="28"/>
+      <c r="F57" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
     </row>
     <row r="58" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A58" s="22"/>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18" t="s">
+      <c r="E58" s="28"/>
+      <c r="F58" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
     </row>
     <row r="59" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A59" s="22"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="17" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18" t="s">
+      <c r="E59" s="28"/>
+      <c r="F59" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="9.75" customHeight="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="17" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18" t="s">
+      <c r="E60" s="28"/>
+      <c r="F60" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
     </row>
     <row r="61" spans="1:10" ht="3.75" customHeight="1">
       <c r="A61" s="7"/>
@@ -3069,6 +3084,155 @@
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I33:I37"/>
+    <mergeCell ref="J33:J37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:I32"/>
+    <mergeCell ref="J25:J32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A23:A50"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
@@ -3093,155 +3257,6 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A23:A50"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:I32"/>
-    <mergeCell ref="J25:J32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I33:I37"/>
-    <mergeCell ref="J33:J37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="J48:J50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:H57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.1594202898550725" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
